--- a/TDD_examples/CASE_3_HTS_HVDC/environment_input.xlsx
+++ b/TDD_examples/CASE_3_HTS_HVDC/environment_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/SC2/Description_of_Components/HTS_best_paths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_3_HTS_HVDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{01D43060-AA5F-4158-AE60-13D7362B342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F930F79-703C-4CBC-BE06-AFD78D97C4FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42132A41-EC6C-411E-BC74-4CF55FE876EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIRONMENT" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>float</t>
   </si>
@@ -50,9 +50,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -62,22 +59,10 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>Relative_humidity</t>
-  </si>
-  <si>
-    <t>Use_humidity</t>
-  </si>
-  <si>
     <t>Pa</t>
   </si>
   <si>
     <t>Temperature of the environment (defaults to 300.15 K)</t>
-  </si>
-  <si>
-    <t>Flag to state if to use humid air (defalults to False)</t>
-  </si>
-  <si>
-    <t>Relative humidity of air, range [0, 100] % (defults to 0)</t>
   </si>
   <si>
     <t>Pressure of the environment (default 101325 Pa, 1 atm)</t>
@@ -139,20 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -167,11 +141,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,50 +489,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="str">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="str">
         <f>[1]TRANSIENT!A$2</f>
         <v>Variable name</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="5" t="str">
         <f>[1]TRANSIENT!B$2</f>
         <v>Unit</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="5" t="str">
         <f>[1]TRANSIENT!C$2</f>
         <v>Variable type</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="5" t="str">
         <f>[1]TRANSIENT!D$2</f>
         <v>Note/comments</v>
       </c>
-      <c r="E1" s="9" t="str">
+      <c r="E1" s="5" t="str">
         <f>[1]TRANSIENT!E$2</f>
         <v>Value</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -570,16 +540,16 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -588,61 +558,27 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
         <v>300.14999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
         <v>101325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
